--- a/data/processed/Combined_2024-10-30.xlsx
+++ b/data/processed/Combined_2024-10-30.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="233">
   <si>
     <t xml:space="preserve">month</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t xml:space="preserve">consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_inflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthly_total_demand</t>
   </si>
   <si>
     <t xml:space="preserve">consumtion_sc1</t>
@@ -2282,7 +2288,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="B15:B26 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2924,7 +2930,7 @@
   <dimension ref="A1:CX50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B15:B26 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2934,7 +2940,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="79" t="s">
         <v>0</v>
@@ -3242,7 +3248,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" s="79" t="n">
         <v>45170</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="78" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B3" s="79" t="n">
         <v>45200</v>
@@ -3858,7 +3864,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="79" t="n">
         <v>45231</v>
@@ -4166,7 +4172,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B5" s="79" t="n">
         <v>45261</v>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B6" s="79" t="n">
         <v>45292</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B7" s="79" t="n">
         <v>45323</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B8" s="79" t="n">
         <v>45352</v>
@@ -5398,7 +5404,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="78" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B9" s="79" t="n">
         <v>45383</v>
@@ -5706,7 +5712,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B10" s="79" t="n">
         <v>45413</v>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B11" s="79" t="n">
         <v>45444</v>
@@ -6322,7 +6328,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B12" s="79" t="n">
         <v>45474</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B13" s="79" t="n">
         <v>45505</v>
@@ -6938,7 +6944,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B14" s="79" t="n">
         <v>45536</v>
@@ -7246,7 +7252,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B15" s="86" t="n">
         <v>45566</v>
@@ -7554,7 +7560,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B16" s="86" t="n">
         <v>45597</v>
@@ -7862,7 +7868,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B17" s="86" t="n">
         <v>45627</v>
@@ -8170,7 +8176,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" s="86" t="n">
         <v>45658</v>
@@ -8478,7 +8484,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" s="86" t="n">
         <v>45689</v>
@@ -8786,7 +8792,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" s="86" t="n">
         <v>45717</v>
@@ -9094,7 +9100,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B21" s="86" t="n">
         <v>45748</v>
@@ -9402,7 +9408,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B22" s="86" t="n">
         <v>45778</v>
@@ -9710,7 +9716,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="78" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="86" t="n">
         <v>45809</v>
@@ -10018,7 +10024,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="86" t="n">
         <v>45839</v>
@@ -10326,7 +10332,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B25" s="86" t="n">
         <v>45870</v>
@@ -10634,7 +10640,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="78" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" s="86" t="n">
         <v>45901</v>
@@ -10942,7 +10948,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" s="88" t="n">
         <v>45931</v>
@@ -11250,7 +11256,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B28" s="88" t="n">
         <v>45962</v>
@@ -11558,7 +11564,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="78" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B29" s="88" t="n">
         <v>45992</v>
@@ -11866,7 +11872,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B30" s="88" t="n">
         <v>46023</v>
@@ -12174,7 +12180,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B31" s="88" t="n">
         <v>46054</v>
@@ -12482,7 +12488,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B32" s="88" t="n">
         <v>46082</v>
@@ -12790,7 +12796,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B33" s="88" t="n">
         <v>46113</v>
@@ -13098,7 +13104,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="78" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B34" s="88" t="n">
         <v>46143</v>
@@ -13406,7 +13412,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B35" s="88" t="n">
         <v>46174</v>
@@ -13714,7 +13720,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B36" s="88" t="n">
         <v>46204</v>
@@ -14022,7 +14028,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B37" s="88" t="n">
         <v>46235</v>
@@ -14330,7 +14336,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" s="88" t="n">
         <v>46266</v>
@@ -14638,7 +14644,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B39" s="89" t="n">
         <v>46296</v>
@@ -14946,7 +14952,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B40" s="89" t="n">
         <v>46327</v>
@@ -15254,7 +15260,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B41" s="89" t="n">
         <v>46357</v>
@@ -15562,7 +15568,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B42" s="89" t="n">
         <v>46388</v>
@@ -15870,7 +15876,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B43" s="89" t="n">
         <v>46419</v>
@@ -16178,7 +16184,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B44" s="89" t="n">
         <v>46447</v>
@@ -16486,7 +16492,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B45" s="89" t="n">
         <v>46478</v>
@@ -16794,7 +16800,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="78" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B46" s="89" t="n">
         <v>46508</v>
@@ -17102,7 +17108,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B47" s="89" t="n">
         <v>46539</v>
@@ -17410,7 +17416,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B48" s="89" t="n">
         <v>46569</v>
@@ -17718,7 +17724,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B49" s="89" t="n">
         <v>46600</v>
@@ -18026,7 +18032,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B50" s="89" t="n">
         <v>46631</v>
@@ -18531,7 +18537,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="B15:B26 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19015,7 +19021,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="B15:B26 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19928,7 +19934,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+      <selection pane="topLeft" activeCell="P7" activeCellId="1" sqref="B15:B26 P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20374,7 +20380,7 @@
   <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+      <selection pane="topLeft" activeCell="O20" activeCellId="1" sqref="B15:B26 O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21923,7 +21929,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B15:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22270,7 +22276,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="B15:B26 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24136,7 +24142,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24170,7 +24176,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>174</v>
@@ -24185,16 +24191,16 @@
         <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26320,7 +26326,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B15:B26 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26330,10 +26336,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
